--- a/src/main/java/resources/Book1.xlsx
+++ b/src/main/java/resources/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10092" windowHeight="1440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="6660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,19 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Testcases</t>
-  </si>
-  <si>
-    <t>Data1</t>
-  </si>
-  <si>
-    <t>Data2</t>
-  </si>
-  <si>
-    <t>Data3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Login</t>
   </si>
@@ -51,25 +39,25 @@
     <t>logidat2</t>
   </si>
   <si>
-    <t>logidat3</t>
-  </si>
-  <si>
     <t>Purchase1</t>
   </si>
   <si>
     <t>Purchase2</t>
   </si>
   <si>
-    <t>Purchase3</t>
-  </si>
-  <si>
     <t>Checkout1</t>
   </si>
   <si>
     <t>Checkout2</t>
   </si>
   <si>
-    <t>Checkout3</t>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>postcode</t>
   </si>
 </sst>
 </file>
@@ -390,68 +378,56 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/resources/Book1.xlsx
+++ b/src/main/java/resources/Book1.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="6660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17088" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="commonDataProvider" sheetId="2" r:id="rId2"/>
+    <sheet name="test_suite" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I3"/>
+  <oleSize ref="A1:Q13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Login</t>
   </si>
@@ -58,6 +58,60 @@
   </si>
   <si>
     <t>postcode</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>ldfjlds</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>class1</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>titleValidation</t>
+  </si>
+  <si>
+    <t>validateUsers</t>
+  </si>
+  <si>
+    <t>validateBasePageNavigation</t>
+  </si>
+  <si>
+    <t>loadingURL</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>runmode</t>
   </si>
 </sst>
 </file>
@@ -375,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -386,7 +440,7 @@
     <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -397,7 +451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -408,7 +462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -419,7 +473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -437,24 +491,143 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>